--- a/AdditionalData_Final/Facts_OlympicsSports.xlsx
+++ b/AdditionalData_Final/Facts_OlympicsSports.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="67">
   <si>
     <t>Questions</t>
   </si>
@@ -107,9 +107,6 @@
     <t>Jesse Owens</t>
   </si>
   <si>
-    <t>'Babe' Ruth</t>
-  </si>
-  <si>
     <t>Muhammad Ali</t>
   </si>
   <si>
@@ -210,6 +207,24 @@
   </si>
   <si>
     <t>Louise Martin</t>
+  </si>
+  <si>
+    <t>Which olympian has been nicknamed 'The Flying Fish'?</t>
+  </si>
+  <si>
+    <t>Ussain Bolt</t>
+  </si>
+  <si>
+    <t>Mark Sptitz</t>
+  </si>
+  <si>
+    <t>The greatest and most versatile player of all time, _______, not only just succeeded in American football and baseball but also while participating in basketball matches and various events of Olympic</t>
+  </si>
+  <si>
+    <t>Jim Thorpe</t>
+  </si>
+  <si>
+    <t>Babe Ruth</t>
   </si>
 </sst>
 </file>
@@ -294,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -322,6 +337,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -637,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -651,7 +669,8 @@
     <col min="4" max="4" width="20.33203125" style="3" customWidth="1"/>
     <col min="5" max="5" width="20.44140625" style="3" customWidth="1"/>
     <col min="6" max="6" width="8.77734375" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="42.6640625" style="3"/>
+    <col min="7" max="7" width="42.6640625" style="10"/>
+    <col min="8" max="16384" width="42.6640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -696,8 +715,9 @@
       <c r="F2" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -716,6 +736,7 @@
       <c r="F3" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="102" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
@@ -736,8 +757,9 @@
       <c r="F4" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
@@ -765,13 +787,13 @@
         <v>25</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>24</v>
@@ -779,73 +801,76 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="3">
         <v>1972</v>
@@ -857,70 +882,114 @@
         <v>2004</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>2</v>
+      </c>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
